--- a/python_excel/new_excel.xlsx
+++ b/python_excel/new_excel.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12300" yWindow="6705" windowWidth="16995" windowHeight="11400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -419,84 +413,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B1" t="n">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="C1" t="n">
-        <v>9</v>
+        <v>789</v>
       </c>
       <c r="D1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>789</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>456</v>
+      </c>
+      <c r="C3" t="n">
+        <v>789</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>